--- a/BOM_JLCSMT.xlsx
+++ b/BOM_JLCSMT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rossvideoltd-my.sharepoint.com/personal/christian_rivera_rossvideo_com/Documents/Documents/PowerSupplyDC_DC/GerberFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rossvideoltd-my.sharepoint.com/personal/christian_rivera_rossvideo_com/Documents/Documents/PowerSupplyDC_DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BA52B9F2-A1B2-4A82-A448-0D751F127462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E968FD9-66D7-4683-BC90-D1E3ED5616A4}"/>
@@ -522,6 +522,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1"/>
